--- a/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -181,22 +181,16 @@
     <t>$ 100</t>
   </si>
   <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
-  </si>
-  <si>
-    <t>$ 800.98</t>
-  </si>
-  <si>
-    <t>$ 186.74</t>
-  </si>
-  <si>
     <t>$ 987.72</t>
   </si>
   <si>
     <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>$ 885.8</t>
+  </si>
+  <si>
+    <t>$ 92.05</t>
   </si>
 </sst>
 </file>
@@ -303,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,9 +330,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +666,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,26 +704,26 @@
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="16">
-        <v>800.98</v>
+      <c r="B2" s="7">
+        <v>885.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9199.02</v>
+        <v>9114.2000000000007</v>
       </c>
       <c r="F2" s="7">
-        <v>787.72</v>
+        <v>803.82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>668.41</v>
+        <v>656.87</v>
       </c>
       <c r="B3" s="7">
-        <v>186.74</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -741,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>481.67</v>
+        <v>554.95000000000005</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -798,7 +789,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A2" sqref="A2:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +805,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -914,10 +905,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>785.8</v>
+        <v>885.8</v>
       </c>
       <c r="G3" s="10">
-        <v>9214.2000000000007</v>
+        <v>9114.2000000000007</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -929,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="L3" s="7">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -960,13 +951,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.9</v>
+        <v>803.82</v>
       </c>
       <c r="G4" s="10">
-        <v>8411.2999999999993</v>
+        <v>8310.3799999999992</v>
       </c>
       <c r="H4" s="7">
-        <v>84.82</v>
+        <v>83.9</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -978,10 +969,10 @@
         <v>887.72</v>
       </c>
       <c r="L4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -990,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>787.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1006,13 +997,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.81</v>
+        <v>794.83</v>
       </c>
       <c r="G5" s="10">
-        <v>7617.49</v>
+        <v>7515.55</v>
       </c>
       <c r="H5" s="7">
-        <v>93.91</v>
+        <v>92.89</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1052,13 +1043,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.59</v>
+        <v>813.59</v>
       </c>
       <c r="G6" s="10">
-        <v>6804.9</v>
+        <v>6701.96</v>
       </c>
       <c r="H6" s="7">
-        <v>75.13</v>
+        <v>74.13</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1098,13 +1089,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.37</v>
+        <v>819.42</v>
       </c>
       <c r="G7" s="10">
-        <v>5986.53</v>
+        <v>5882.54</v>
       </c>
       <c r="H7" s="7">
-        <v>69.349999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1144,13 +1135,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.67</v>
+        <v>829.7</v>
       </c>
       <c r="G8" s="10">
-        <v>5157.8599999999997</v>
+        <v>5052.84</v>
       </c>
       <c r="H8" s="7">
-        <v>59.05</v>
+        <v>58.02</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1190,13 +1181,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.15</v>
+        <v>836.22</v>
       </c>
       <c r="G9" s="10">
-        <v>4322.71</v>
+        <v>4216.62</v>
       </c>
       <c r="H9" s="7">
-        <v>52.57</v>
+        <v>51.5</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1236,13 +1227,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.66</v>
+        <v>844.75</v>
       </c>
       <c r="G10" s="10">
-        <v>3479.05</v>
+        <v>3371.87</v>
       </c>
       <c r="H10" s="7">
-        <v>44.06</v>
+        <v>42.97</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1282,13 +1273,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.41</v>
+        <v>854.46</v>
       </c>
       <c r="G11" s="10">
-        <v>2625.64</v>
+        <v>2517.41</v>
       </c>
       <c r="H11" s="7">
-        <v>34.31</v>
+        <v>33.26</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1328,13 +1319,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>860.96</v>
+        <v>862.06</v>
       </c>
       <c r="G12" s="10">
-        <v>1764.68</v>
+        <v>1655.35</v>
       </c>
       <c r="H12" s="7">
-        <v>26.76</v>
+        <v>25.66</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1374,13 +1365,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.31</v>
+        <v>871.39</v>
       </c>
       <c r="G13" s="7">
-        <v>894.37</v>
+        <v>783.96</v>
       </c>
       <c r="H13" s="7">
-        <v>17.41</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1420,13 +1411,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>894.37</v>
+        <v>783.96</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.1199999999999992</v>
+        <v>7.99</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1435,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>903.49</v>
+        <v>791.95</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1450,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>903.49</v>
+        <v>791.95</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A2:XFD7"/>
@@ -1482,7 +1473,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1514,7 +1505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>183</v>
       </c>
@@ -1528,13 +1519,13 @@
         <v>39</v>
       </c>
       <c r="E2" s="7">
-        <v>93.91</v>
+        <v>92.89</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>93.91</v>
+        <v>92.89</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1545,10 +1536,8 @@
       <c r="J2" s="7">
         <v>0</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>182</v>
       </c>
@@ -1562,13 +1551,13 @@
         <v>39</v>
       </c>
       <c r="E3" s="7">
-        <v>84.82</v>
+        <v>83.9</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>84.82</v>
+        <v>83.9</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -1579,10 +1568,8 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>181</v>
       </c>
@@ -1599,10 +1586,10 @@
         <v>987.72</v>
       </c>
       <c r="F4" s="7">
-        <v>800.98</v>
+        <v>885.8</v>
       </c>
       <c r="G4" s="7">
-        <v>186.74</v>
+        <v>101.92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1611,12 +1598,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="10">
-        <v>9199.02</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9114.2000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>178</v>
       </c>
@@ -1647,10 +1632,8 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>177</v>
       </c>
@@ -1681,8 +1664,6 @@
       <c r="J6" s="9">
         <v>10000</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1754,7 +1735,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,7 +1762,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1776,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I4"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1909,7 +1890,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1921,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2073,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2118,7 +2099,7 @@
         <v>47</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2196,7 +2177,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2222,7 +2203,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -166,15 +166,6 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L181</t>
-  </si>
-  <si>
-    <t>Penalties Receivable(4)</t>
-  </si>
-  <si>
-    <t>Income from Penalties(8)</t>
-  </si>
-  <si>
     <t>$ 101.92</t>
   </si>
   <si>
@@ -187,10 +178,34 @@
     <t>$ 10,000</t>
   </si>
   <si>
-    <t>$ 885.8</t>
-  </si>
-  <si>
-    <t>$ 92.05</t>
+    <t>L1916</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>Penalties Receivable(5)</t>
+  </si>
+  <si>
+    <t>L1981</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>L1985</t>
+  </si>
+  <si>
+    <t>$ 84.82</t>
+  </si>
+  <si>
+    <t>L1986</t>
+  </si>
+  <si>
+    <t>$ 93.91</t>
   </si>
 </sst>
 </file>
@@ -297,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -330,6 +345,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +720,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -700,27 +740,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>885.8</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9114.2000000000007</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="F2" s="7">
-        <v>803.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>802.9</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>656.87</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="7">
         <v>101.92</v>
@@ -732,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>554.95000000000005</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="7">
-        <v>83.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -758,12 +799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -772,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +830,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P14"/>
+      <selection activeCell="J3" activeCellId="2" sqref="H3 F3 J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,8 +845,8 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -888,7 +929,6 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -905,10 +945,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>885.8</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="10">
-        <v>9114.2000000000007</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -917,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" s="7">
         <v>987.72</v>
@@ -929,9 +969,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -951,22 +988,22 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>803.82</v>
+        <v>802.9</v>
       </c>
       <c r="G4" s="10">
-        <v>8310.3799999999992</v>
+        <v>8411.2999999999993</v>
       </c>
       <c r="H4" s="7">
-        <v>83.9</v>
+        <v>84.82</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -977,11 +1014,8 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
       <c r="P4" s="7">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -997,13 +1031,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>794.83</v>
+        <v>793.81</v>
       </c>
       <c r="G5" s="10">
-        <v>7515.55</v>
+        <v>7617.49</v>
       </c>
       <c r="H5" s="7">
-        <v>92.89</v>
+        <v>93.91</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1021,9 +1055,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
@@ -1043,13 +1074,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>813.59</v>
+        <v>812.59</v>
       </c>
       <c r="G6" s="10">
-        <v>6701.96</v>
+        <v>6804.9</v>
       </c>
       <c r="H6" s="7">
-        <v>74.13</v>
+        <v>75.13</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1067,9 +1098,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
@@ -1089,13 +1117,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>819.42</v>
+        <v>818.37</v>
       </c>
       <c r="G7" s="10">
-        <v>5882.54</v>
+        <v>5986.53</v>
       </c>
       <c r="H7" s="7">
-        <v>68.3</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1113,9 +1141,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
@@ -1135,13 +1160,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>829.7</v>
+        <v>828.67</v>
       </c>
       <c r="G8" s="10">
-        <v>5052.84</v>
+        <v>5157.8599999999997</v>
       </c>
       <c r="H8" s="7">
-        <v>58.02</v>
+        <v>59.05</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1159,9 +1184,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
@@ -1181,13 +1203,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>836.22</v>
+        <v>835.15</v>
       </c>
       <c r="G9" s="10">
-        <v>4216.62</v>
+        <v>4322.71</v>
       </c>
       <c r="H9" s="7">
-        <v>51.5</v>
+        <v>52.57</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1205,9 +1227,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
@@ -1227,13 +1246,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>844.75</v>
+        <v>843.66</v>
       </c>
       <c r="G10" s="10">
-        <v>3371.87</v>
+        <v>3479.05</v>
       </c>
       <c r="H10" s="7">
-        <v>42.97</v>
+        <v>44.06</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1251,9 +1270,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
@@ -1273,13 +1289,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>854.46</v>
+        <v>853.41</v>
       </c>
       <c r="G11" s="10">
-        <v>2517.41</v>
+        <v>2625.64</v>
       </c>
       <c r="H11" s="7">
-        <v>33.26</v>
+        <v>34.31</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1297,9 +1313,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
@@ -1319,13 +1332,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>862.06</v>
+        <v>860.96</v>
       </c>
       <c r="G12" s="10">
-        <v>1655.35</v>
+        <v>1764.68</v>
       </c>
       <c r="H12" s="7">
-        <v>25.66</v>
+        <v>26.76</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1343,9 +1356,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
@@ -1365,13 +1375,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>871.39</v>
+        <v>870.31</v>
       </c>
       <c r="G13" s="7">
-        <v>783.96</v>
+        <v>894.37</v>
       </c>
       <c r="H13" s="7">
-        <v>16.329999999999998</v>
+        <v>17.41</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1389,9 +1399,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
@@ -1411,13 +1418,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>783.96</v>
+        <v>894.37</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>7.99</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1426,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>791.95</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1437,11 +1444,8 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
       <c r="P14" s="7">
-        <v>791.95</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1477,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1505,9 +1509,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>183</v>
+        <v>1958</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1519,13 +1523,13 @@
         <v>39</v>
       </c>
       <c r="E2" s="7">
-        <v>92.89</v>
+        <v>93.91</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>92.89</v>
+        <v>93.91</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1536,10 +1540,12 @@
       <c r="J2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>182</v>
+        <v>1957</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1551,27 +1557,29 @@
         <v>39</v>
       </c>
       <c r="E3" s="7">
-        <v>83.9</v>
+        <v>184.82</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>83.9</v>
+        <v>84.82</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>181</v>
+        <v>1956</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1586,7 +1594,7 @@
         <v>987.72</v>
       </c>
       <c r="F4" s="7">
-        <v>885.8</v>
+        <v>785.8</v>
       </c>
       <c r="G4" s="7">
         <v>101.92</v>
@@ -1595,15 +1603,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" s="10">
-        <v>9114.2000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>178</v>
+        <v>1953</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1615,7 +1625,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="7">
-        <v>101.92</v>
+        <v>201.92</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1627,15 +1637,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>177</v>
+        <v>1952</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1664,6 +1676,8 @@
       <c r="J6" s="9">
         <v>10000</v>
       </c>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,7 +1689,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1749,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1760,9 +1774,8 @@
       <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1773,17 +1786,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,81 +1830,107 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>236</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="16">
+        <v>3539</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="17">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>3540</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="12" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>3541</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="17">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>237</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="G4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>3542</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C5" s="17">
         <v>42036</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>238</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>53</v>
+      <c r="H5" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1903,12 +1943,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
@@ -1947,266 +1988,277 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>192</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="21">
+        <v>3787</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="26">
         <v>42036</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>3788</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="26">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>3789</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="26">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>3790</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="26">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>3807</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="26">
+        <v>42064</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>193</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="H7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>3808</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C8" s="26">
+        <v>42064</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>194</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>3809</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C9" s="26">
+        <v>42064</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G9" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>195</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>3810</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C10" s="26">
+        <v>42064</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>216</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="G10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>3811</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C12" s="26">
+        <v>42095</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>217</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="H12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>3812</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="C13" s="26">
+        <v>42095</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G13" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>218</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>219</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>220</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="12">
-        <v>42095</v>
-      </c>
-      <c r="D12" s="12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>221</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="12">
-        <v>42095</v>
-      </c>
-      <c r="D13" s="12">
-        <v>3</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>51</v>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -1943,7 +1943,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3147-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -827,10 +827,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" activeCellId="2" sqref="H3 F3 J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,12 +848,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,17 +894,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -929,8 +931,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -968,14 +971,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1011,14 +1015,15 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
         <v>987.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1054,14 +1059,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1097,14 +1103,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1140,14 +1147,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1183,14 +1191,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1226,14 +1235,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1269,14 +1279,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1312,14 +1323,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1355,14 +1367,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1398,14 +1411,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1441,10 +1455,11 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>903.49</v>
       </c>
     </row>
@@ -1942,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
